--- a/tnda_fix/form_mau_excel.xlsx
+++ b/tnda_fix/form_mau_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Long Nguyen\Google Drive\Web project\tnda_fix\tnda_fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E551859-4F76-4C1B-B2D7-9291210C75DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAFFFE-E0BA-4741-AE07-14B307A33D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EEA01F0D-CFF7-4EBE-81AD-0C68C13B779B}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
